--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +543,10 @@
         <v>1.805913</v>
       </c>
       <c r="I2">
-        <v>0.6090241081970299</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="J2">
-        <v>0.6090241081970298</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5314143333333333</v>
+        <v>0.8630909999999999</v>
       </c>
       <c r="N2">
-        <v>1.594243</v>
+        <v>2.589273</v>
       </c>
       <c r="O2">
-        <v>0.01762280440365445</v>
+        <v>0.029079428547613</v>
       </c>
       <c r="P2">
-        <v>0.01762280440365445</v>
+        <v>0.029079428547613</v>
       </c>
       <c r="Q2">
-        <v>0.319896017651</v>
+        <v>0.519555752361</v>
       </c>
       <c r="R2">
-        <v>2.879064158859</v>
+        <v>4.676001771249</v>
       </c>
       <c r="S2">
-        <v>0.01073271273586634</v>
+        <v>0.002789969802332625</v>
       </c>
       <c r="T2">
-        <v>0.01073271273586634</v>
+        <v>0.002789969802332625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +605,10 @@
         <v>1.805913</v>
       </c>
       <c r="I3">
-        <v>0.6090241081970299</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="J3">
-        <v>0.6090241081970298</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +623,10 @@
         <v>74.184296</v>
       </c>
       <c r="O3">
-        <v>0.8200351754599551</v>
+        <v>0.833143872773158</v>
       </c>
       <c r="P3">
-        <v>0.820035175459955</v>
+        <v>0.8331438727731579</v>
       </c>
       <c r="Q3">
         <v>14.885598282472</v>
@@ -632,10 +635,10 @@
         <v>133.970384542248</v>
       </c>
       <c r="S3">
-        <v>0.4994211914246941</v>
+        <v>0.07993438530711323</v>
       </c>
       <c r="T3">
-        <v>0.4994211914246939</v>
+        <v>0.07993438530711323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +667,10 @@
         <v>1.805913</v>
       </c>
       <c r="I4">
-        <v>0.6090241081970299</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="J4">
-        <v>0.6090241081970298</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.895411333333333</v>
+        <v>4.080109666666666</v>
       </c>
       <c r="N4">
-        <v>14.686234</v>
+        <v>12.240329</v>
       </c>
       <c r="O4">
-        <v>0.1623420201363905</v>
+        <v>0.137467842346008</v>
       </c>
       <c r="P4">
-        <v>0.1623420201363905</v>
+        <v>0.137467842346008</v>
       </c>
       <c r="Q4">
-        <v>2.946895655738</v>
+        <v>2.456107696153</v>
       </c>
       <c r="R4">
-        <v>26.522060901642</v>
+        <v>22.104969265377</v>
       </c>
       <c r="S4">
-        <v>0.0988702040364695</v>
+        <v>0.01318908754720584</v>
       </c>
       <c r="T4">
-        <v>0.09887020403646948</v>
+        <v>0.01318908754720584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -720,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.386448</v>
+        <v>0.601971</v>
       </c>
       <c r="H5">
-        <v>1.159344</v>
+        <v>1.805913</v>
       </c>
       <c r="I5">
-        <v>0.3909758918029702</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="J5">
-        <v>0.3909758918029702</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5314143333333333</v>
+        <v>0.009167</v>
       </c>
       <c r="N5">
-        <v>1.594243</v>
+        <v>0.027501</v>
       </c>
       <c r="O5">
-        <v>0.01762280440365445</v>
+        <v>0.0003088563332209099</v>
       </c>
       <c r="P5">
-        <v>0.01762280440365445</v>
+        <v>0.0003088563332209099</v>
       </c>
       <c r="Q5">
-        <v>0.205364006288</v>
+        <v>0.005518268157</v>
       </c>
       <c r="R5">
-        <v>1.848276056592</v>
+        <v>0.04966441341300001</v>
       </c>
       <c r="S5">
-        <v>0.006890091667788108</v>
+        <v>2.963262642987029E-05</v>
       </c>
       <c r="T5">
-        <v>0.006890091667788106</v>
+        <v>2.963262642987029E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.386448</v>
+        <v>5.672280666666667</v>
       </c>
       <c r="H6">
-        <v>1.159344</v>
+        <v>17.016842</v>
       </c>
       <c r="I6">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="J6">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.72809866666667</v>
+        <v>0.8630909999999999</v>
       </c>
       <c r="N6">
-        <v>74.184296</v>
+        <v>2.589273</v>
       </c>
       <c r="O6">
-        <v>0.8200351754599551</v>
+        <v>0.029079428547613</v>
       </c>
       <c r="P6">
-        <v>0.820035175459955</v>
+        <v>0.029079428547613</v>
       </c>
       <c r="Q6">
-        <v>9.556124273536</v>
+        <v>4.895694392874</v>
       </c>
       <c r="R6">
-        <v>86.005118461824</v>
+        <v>44.061249535866</v>
       </c>
       <c r="S6">
-        <v>0.320613984035261</v>
+        <v>0.02628945874528038</v>
       </c>
       <c r="T6">
-        <v>0.320613984035261</v>
+        <v>0.02628945874528038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.386448</v>
+        <v>5.672280666666667</v>
       </c>
       <c r="H7">
-        <v>1.159344</v>
+        <v>17.016842</v>
       </c>
       <c r="I7">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="J7">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.895411333333333</v>
+        <v>24.72809866666667</v>
       </c>
       <c r="N7">
-        <v>14.686234</v>
+        <v>74.184296</v>
       </c>
       <c r="O7">
-        <v>0.1623420201363905</v>
+        <v>0.833143872773158</v>
       </c>
       <c r="P7">
-        <v>0.1623420201363905</v>
+        <v>0.8331438727731579</v>
       </c>
       <c r="Q7">
-        <v>1.891821918944</v>
+        <v>140.2647159903591</v>
       </c>
       <c r="R7">
-        <v>17.026397270496</v>
+        <v>1262.382443913232</v>
       </c>
       <c r="S7">
-        <v>0.06347181609992102</v>
+        <v>0.7532094874660449</v>
       </c>
       <c r="T7">
-        <v>0.06347181609992102</v>
+        <v>0.7532094874660448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.672280666666667</v>
+      </c>
+      <c r="H8">
+        <v>17.016842</v>
+      </c>
+      <c r="I8">
+        <v>0.9040569247169185</v>
+      </c>
+      <c r="J8">
+        <v>0.9040569247169185</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.080109666666666</v>
+      </c>
+      <c r="N8">
+        <v>12.240329</v>
+      </c>
+      <c r="O8">
+        <v>0.137467842346008</v>
+      </c>
+      <c r="P8">
+        <v>0.137467842346008</v>
+      </c>
+      <c r="Q8">
+        <v>23.14352718011311</v>
+      </c>
+      <c r="R8">
+        <v>208.291744621018</v>
+      </c>
+      <c r="S8">
+        <v>0.1242787547988022</v>
+      </c>
+      <c r="T8">
+        <v>0.1242787547988022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.672280666666667</v>
+      </c>
+      <c r="H9">
+        <v>17.016842</v>
+      </c>
+      <c r="I9">
+        <v>0.9040569247169185</v>
+      </c>
+      <c r="J9">
+        <v>0.9040569247169185</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.009167</v>
+      </c>
+      <c r="N9">
+        <v>0.027501</v>
+      </c>
+      <c r="O9">
+        <v>0.0003088563332209099</v>
+      </c>
+      <c r="P9">
+        <v>0.0003088563332209099</v>
+      </c>
+      <c r="Q9">
+        <v>0.05199779687133333</v>
+      </c>
+      <c r="R9">
+        <v>0.467980171842</v>
+      </c>
+      <c r="S9">
+        <v>0.0002792237067910396</v>
+      </c>
+      <c r="T9">
+        <v>0.0002792237067910396</v>
       </c>
     </row>
   </sheetData>
